--- a/biology/Microbiologie/Sarcocystis_calchasi/Sarcocystis_calchasi.xlsx
+++ b/biology/Microbiologie/Sarcocystis_calchasi/Sarcocystis_calchasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarcocystis calchasi est une espèce de protozoaires de l’embranchement des Apicomplexa.
-Elle a été isolée en 2009 chez des pigeons voyageurs atteints d'encéphalite et de myosite[1], puis en 2010 chez des Autours des palombes (Accipiter gentilis)[2].
-Comme les autres espèces du genre Sarcocystis, elle possède un cycle évolutif avec deux hôtes successifs : un prédateur, hôte définitif, chez qui elle n'est pas pathogène, ici l'Autour des palombes, et une proie, hôte intermédiaire, chez qui elle est hautement pathogène, ici plusieurs espèces d'oiseaux appartenant à l'ordre des Columbiformes, des Psittaciformes et des Suliformes[3]. De l'ADN de Sarcocystis calchasi a également été détecté dans les muscles pectoraux d'un Pic épeiche (Dendrocopos major) et dans le foie d'un Pic vert (Picus viridis), deux espèces de l'ordre des Piciformes[4].
+Elle a été isolée en 2009 chez des pigeons voyageurs atteints d'encéphalite et de myosite, puis en 2010 chez des Autours des palombes (Accipiter gentilis).
+Comme les autres espèces du genre Sarcocystis, elle possède un cycle évolutif avec deux hôtes successifs : un prédateur, hôte définitif, chez qui elle n'est pas pathogène, ici l'Autour des palombes, et une proie, hôte intermédiaire, chez qui elle est hautement pathogène, ici plusieurs espèces d'oiseaux appartenant à l'ordre des Columbiformes, des Psittaciformes et des Suliformes. De l'ADN de Sarcocystis calchasi a également été détecté dans les muscles pectoraux d'un Pic épeiche (Dendrocopos major) et dans le foie d'un Pic vert (Picus viridis), deux espèces de l'ordre des Piciformes.
 </t>
         </is>
       </c>
